--- a/Plantilla_Resultado/devolución_114_10627773_MEGATIENDAS ARJONA_CARTAGENA_DEVOLUCION POR VENCIMIENTO MES DE ABRIL.xlsx
+++ b/Plantilla_Resultado/devolución_114_10627773_MEGATIENDAS ARJONA_CARTAGENA_DEVOLUCION POR VENCIMIENTO MES DE ABRIL.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -309,24 +309,24 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="114300" y="44450"/>
           <a:ext cx="1085850" cy="828675"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -598,12 +598,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -749,11 +749,15 @@
       <c r="Y4" s="12" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v/>
-      </c>
-      <c r="B5" t="n">
-        <v/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1051976</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glina. JUMBO Rosca 12Plegx6unx31g</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -769,12 +773,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1070593</t>
+          <t>1052864</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Glina. JET Caramel 24bolx18undx6gr</t>
+          <t>Glina. JUMBO Rosca 12Pleg14unx31gr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -784,16 +788,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v/>
-      </c>
-      <c r="B7" t="n">
-        <v/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1064640</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Glina. JET FresasCrema 24Plegx6undx29g</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -809,12 +817,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1043456</t>
+          <t>1064641</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gta. FESTIVAL Recreo 12x4 OFT2</t>
+          <t>Glina. JET FresasCrema 12Plegx12undx29g</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -824,16 +832,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v/>
-      </c>
-      <c r="B9" t="n">
-        <v/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1051976</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Glina. JUMBO Rosca 12Plegx6unx31g</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -849,12 +861,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1070643</t>
+          <t>1052864</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gta. NOEL Galleton Baileys Plegax8 132g</t>
+          <t>Glina. JUMBO Rosca 12Pleg14unx31gr</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -864,20 +876,16 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1015400</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Glina. JET Leche Calcio 48 Bjax12undx12g</t>
-        </is>
+      <c r="A11" t="n">
+        <v/>
+      </c>
+      <c r="B11" t="n">
+        <v/>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -893,20 +901,64 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>1070643</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gta. NOEL Galleton Baileys Plegax8 132g</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>1015400</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Glina. JET Leche Calcio 48 Bjax12undx12g</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>UND</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1015400</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Glina. JET Leche Calcio 48 Bjax12undx12g</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -917,12 +969,12 @@
     <mergeCell ref="A1:E3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation sqref="E5:E12" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="E5:E14" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"D01-AvaladCalid/Rec.Mas.,D02-Avería en el cliente,D03-Baja Rotación,D06-Perdida de vacio,D11-Producto vencido,D07-Producto Contaminado,D09-Producto derretido,D71-Baja Rotación- Buena"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plantilla_Resultado/devolución_114_10627773_MEGATIENDAS ARJONA_CARTAGENA_DEVOLUCION POR VENCIMIENTO MES DE ABRIL.xlsx
+++ b/Plantilla_Resultado/devolución_114_10627773_MEGATIENDAS ARJONA_CARTAGENA_DEVOLUCION POR VENCIMIENTO MES DE ABRIL.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -309,24 +309,24 @@
       <nvPicPr>
         <cNvPr id="2" name="Picture 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="114300" y="44450"/>
           <a:ext cx="1085850" cy="828675"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -598,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -975,6 +975,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>